--- a/docs/StructureDefinition-argo-patientlist.xlsx
+++ b/docs/StructureDefinition-argo-patientlist.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$49</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="279">
   <si>
     <t>Path</t>
   </si>
@@ -553,6 +553,116 @@
     <t>Used for searching for user or system-maintained lists</t>
   </si>
   <si>
+    <t>Group.managingEntity.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Group.managingEntity.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Group.managingEntity.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Group.managingEntity.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Group.managingEntity.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Group.managingEntity.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>Group.characteristic</t>
   </si>
   <si>
@@ -578,28 +688,7 @@
     <t>Group.characteristic.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Group.characteristic.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Group.characteristic.modifierExtension</t>
@@ -631,9 +720,6 @@
     <t>Need a formal way of identifying the characteristic being described.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>http://www.fhir.org/guides/argonaut/patient-list/ValueSet/argo-group-characteristic</t>
   </si>
   <si>
@@ -755,6 +841,24 @@
   </si>
   <si>
     <t>Group with different characteristics can be combined to create a union of characteristic, for example a group of patients at location = Location1 or Location2 or a group of patients at location = Location1 or Practitioner = Practitioner2</t>
+  </si>
+  <si>
+    <t>Group.member.entity.id</t>
+  </si>
+  <si>
+    <t>Group.member.entity.extension</t>
+  </si>
+  <si>
+    <t>Group.member.entity.reference</t>
+  </si>
+  <si>
+    <t>Group.member.entity.type</t>
+  </si>
+  <si>
+    <t>Group.member.entity.identifier</t>
+  </si>
+  <si>
+    <t>Group.member.entity.display</t>
   </si>
   <si>
     <t>Group.member.period</t>
@@ -933,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AK49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -969,7 +1073,7 @@
     <col min="25" max="25" width="78.34375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2988,7 +3092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>171</v>
       </c>
@@ -3001,10 +3105,10 @@
         <v>39</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3013,20 +3117,16 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>38</v>
       </c>
@@ -3074,22 +3174,22 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -3097,18 +3197,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>38</v>
@@ -3120,15 +3220,17 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>38</v>
@@ -3165,74 +3267,74 @@
         <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3282,22 +3384,22 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH22" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3309,39 +3411,37 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>109</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>38</v>
       </c>
@@ -3365,13 +3465,13 @@
         <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>38</v>
@@ -3389,19 +3489,19 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>90</v>
@@ -3410,9 +3510,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3420,33 +3520,33 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>38</v>
       </c>
@@ -3470,11 +3570,13 @@
         <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>38</v>
@@ -3492,10 +3594,10 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>47</v>
@@ -3507,15 +3609,15 @@
         <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3523,35 +3625,33 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>38</v>
       </c>
@@ -3575,10 +3675,10 @@
         <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>38</v>
@@ -3599,10 +3699,10 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>47</v>
@@ -3614,7 +3714,7 @@
         <v>59</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -3630,10 +3730,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>48</v>
@@ -3645,19 +3745,19 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>38</v>
@@ -3709,10 +3809,10 @@
         <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>38</v>
@@ -3721,7 +3821,7 @@
         <v>59</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -3729,7 +3829,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3752,13 +3852,13 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3809,7 +3909,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3821,22 +3921,22 @@
         <v>38</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -3846,7 +3946,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -3855,20 +3955,18 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>38</v>
       </c>
@@ -3916,7 +4014,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3925,13 +4023,13 @@
         <v>40</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -3939,39 +4037,43 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>38</v>
       </c>
@@ -4019,30 +4121,30 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4050,13 +4152,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4065,16 +4167,18 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>38</v>
       </c>
@@ -4098,44 +4202,44 @@
         <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -4143,17 +4247,15 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>47</v>
@@ -4168,16 +4270,20 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>38</v>
       </c>
@@ -4201,10 +4307,10 @@
         <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="Y31" t="s" s="2">
         <v>38</v>
@@ -4225,22 +4331,22 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -4248,17 +4354,15 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>47</v>
@@ -4273,16 +4377,20 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>38</v>
       </c>
@@ -4330,34 +4438,32 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>90</v>
+        <v>238</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>38</v>
       </c>
@@ -4369,7 +4475,7 @@
         <v>47</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -4378,13 +4484,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4435,34 +4541,34 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4472,28 +4578,28 @@
         <v>40</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>38</v>
@@ -4542,7 +4648,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4551,21 +4657,21 @@
         <v>40</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4573,13 +4679,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -4588,17 +4694,15 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>232</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>38</v>
@@ -4647,10 +4751,10 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>47</v>
@@ -4659,10 +4763,10 @@
         <v>38</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
@@ -4670,7 +4774,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4681,7 +4785,7 @@
         <v>39</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>38</v>
@@ -4693,24 +4797,20 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P36" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>38</v>
       </c>
@@ -4742,31 +4842,29 @@
         <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>38</v>
@@ -4775,11 +4873,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>38</v>
       </c>
@@ -4791,7 +4891,7 @@
         <v>47</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -4800,90 +4900,1350 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Q48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P37" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Q37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI37" t="s" s="2">
+      <c r="K49" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Q49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AJ49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK37">
+  <autoFilter ref="A1:AK49">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4893,7 +6253,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI36">
+  <conditionalFormatting sqref="A2:AI48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
